--- a/Оборудование на расчет участок транспортирования.xlsx
+++ b/Оборудование на расчет участок транспортирования.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\ENPZ_del\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\enpz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98605A-3978-4062-AF98-BA2C04DF5F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="А10 (трубопровод ЕНПЗ)" sheetId="7" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Сценарии" sheetId="2" r:id="rId6"/>
     <sheet name="Лист3" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -310,9 +309,6 @@
   </si>
   <si>
     <t>Разрыв трубопровода на сечение</t>
-  </si>
-  <si>
-    <t>Кол-во погиших, чел</t>
   </si>
   <si>
     <t>Кол-во пострадавших, чел</t>
@@ -601,11 +597,14 @@
   <si>
     <t>Ж/ цистерна (соляная кислота)</t>
   </si>
+  <si>
+    <t>Кол-во погибших, чел</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1243,6 +1242,15 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,15 +1263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1624,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED8C608-8180-41B8-827A-805191FA70AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1632,23 +1631,23 @@
       <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="88" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="6" customWidth="1"/>
-    <col min="10" max="13" width="8.88671875" style="6"/>
-    <col min="14" max="14" width="8.88671875" style="79"/>
-    <col min="15" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="12.140625" style="88" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="6" customWidth="1"/>
+    <col min="10" max="13" width="8.85546875" style="6"/>
+    <col min="14" max="14" width="8.85546875" style="79"/>
+    <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2198,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E73E6F6-9433-49C3-8A0C-A8077C54A02A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2206,23 +2205,23 @@
       <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="88" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="6" customWidth="1"/>
-    <col min="10" max="13" width="8.88671875" style="6"/>
-    <col min="14" max="14" width="8.88671875" style="79"/>
-    <col min="15" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="12.140625" style="88" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="6" customWidth="1"/>
+    <col min="10" max="13" width="8.85546875" style="6"/>
+    <col min="14" max="14" width="8.85546875" style="79"/>
+    <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
@@ -2754,7 +2753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,24 +2761,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
-    <col min="11" max="14" width="8.88671875" style="6"/>
-    <col min="15" max="15" width="8.88671875" style="79"/>
-    <col min="16" max="16384" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="6" customWidth="1"/>
+    <col min="11" max="14" width="8.85546875" style="6"/>
+    <col min="15" max="15" width="8.85546875" style="79"/>
+    <col min="16" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="84" t="s">
         <v>70</v>
       </c>
@@ -3362,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T126"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3370,23 +3369,23 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:L125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="12.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="12.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="13" style="6" customWidth="1"/>
-    <col min="8" max="9" width="15.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="9" width="15.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -3433,7 +3432,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3454,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -3470,7 +3469,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -3491,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -3507,7 +3506,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3519,7 +3518,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="13" t="s">
@@ -3539,7 +3538,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3566,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3580,7 +3579,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="34"/>
@@ -3592,7 +3591,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="21"/>
@@ -3617,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
         <v>59</v>
@@ -3637,7 +3636,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="11"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -3649,7 +3648,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="11"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3661,7 +3660,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
       <c r="D16" s="21"/>
       <c r="E16" s="23" t="s">
@@ -3688,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="11"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -3702,7 +3701,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="11"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -3714,7 +3713,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="38"/>
       <c r="D19" s="11"/>
       <c r="E19" s="21"/>
@@ -3735,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="11"/>
       <c r="D20" s="21"/>
       <c r="E20" s="40"/>
@@ -3751,7 +3750,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="11"/>
       <c r="D21" s="21"/>
       <c r="E21" s="40"/>
@@ -3772,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="11"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -3788,7 +3787,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="41"/>
       <c r="D23" s="11"/>
       <c r="E23" s="21"/>
@@ -3800,7 +3799,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -3816,7 +3815,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="11"/>
       <c r="D25" s="23" t="s">
         <v>60</v>
@@ -3847,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -3861,7 +3860,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -3873,7 +3872,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -3898,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -3914,7 +3913,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="11"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -3926,7 +3925,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="38"/>
       <c r="D31" s="11"/>
       <c r="E31" s="21"/>
@@ -3938,7 +3937,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="11"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -3961,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33" s="11"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -3975,7 +3974,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" s="11"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -3987,7 +3986,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" s="11"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -3999,7 +3998,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" s="11"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -4020,7 +4019,7 @@
         <v>5.0000000000000008E-7</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" s="11"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -4036,7 +4035,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" s="11"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -4057,7 +4056,7 @@
         <v>4.7500000000000006E-7</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39" s="11"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -4073,7 +4072,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40" s="11"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4085,7 +4084,7 @@
       <c r="K40" s="11"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C41" s="11"/>
       <c r="D41" s="21"/>
       <c r="E41" s="23" t="s">
@@ -4105,7 +4104,7 @@
       <c r="K41" s="11"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C42" s="11"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -4132,7 +4131,7 @@
         <v>9.0250000000000008E-6</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C43" s="11"/>
       <c r="D43" s="21"/>
       <c r="E43" s="25"/>
@@ -4146,7 +4145,7 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C44" s="38"/>
       <c r="D44" s="11"/>
       <c r="E44" s="18"/>
@@ -4158,7 +4157,7 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C45" s="11"/>
       <c r="D45" s="21"/>
       <c r="E45" s="11"/>
@@ -4183,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C46" s="11"/>
       <c r="D46" s="21"/>
       <c r="E46" s="42"/>
@@ -4199,7 +4198,7 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C47" s="11"/>
       <c r="D47" s="21"/>
       <c r="E47" s="11"/>
@@ -4214,7 +4213,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C48" s="11"/>
       <c r="D48" s="21"/>
       <c r="E48" s="11"/>
@@ -4229,7 +4228,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C49" s="11"/>
       <c r="D49" s="21"/>
       <c r="E49" s="13" t="s">
@@ -4259,7 +4258,7 @@
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C50" s="11"/>
       <c r="D50" s="21"/>
       <c r="E50" s="11"/>
@@ -4276,7 +4275,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C51" s="11"/>
       <c r="D51" s="21"/>
       <c r="E51" s="11"/>
@@ -4291,7 +4290,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C52" s="43" t="s">
         <v>61</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C53" s="11"/>
       <c r="D53" s="44"/>
       <c r="E53" s="38"/>
@@ -4335,7 +4334,7 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C54" s="11"/>
       <c r="D54" s="44"/>
       <c r="E54" s="38"/>
@@ -4356,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C55" s="11"/>
       <c r="D55" s="44"/>
       <c r="E55" s="11"/>
@@ -4372,7 +4371,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="33"/>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C56" s="11"/>
       <c r="D56" s="44"/>
       <c r="E56" s="11"/>
@@ -4384,7 +4383,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="33"/>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C57" s="11"/>
       <c r="D57" s="44"/>
       <c r="E57" s="11"/>
@@ -4400,7 +4399,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="33"/>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C58" s="11"/>
       <c r="D58" s="44"/>
       <c r="E58" s="11"/>
@@ -4427,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C59" s="11"/>
       <c r="D59" s="44"/>
       <c r="E59" s="11"/>
@@ -4441,7 +4440,7 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C60" s="11"/>
       <c r="D60" s="44"/>
       <c r="E60" s="11"/>
@@ -4453,7 +4452,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C61" s="11"/>
       <c r="D61" s="44"/>
       <c r="E61" s="11"/>
@@ -4478,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C62" s="11"/>
       <c r="D62" s="44"/>
       <c r="E62" s="11"/>
@@ -4494,7 +4493,7 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C63" s="11"/>
       <c r="D63" s="44"/>
       <c r="E63" s="11"/>
@@ -4506,7 +4505,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C64" s="11"/>
       <c r="D64" s="44"/>
       <c r="E64" s="11"/>
@@ -4518,7 +4517,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C65" s="45"/>
       <c r="D65" s="44"/>
       <c r="E65" s="11"/>
@@ -4541,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C66" s="46">
         <f>0.00001</f>
         <v>1.0000000000000001E-5</v>
@@ -4558,7 +4557,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C67" s="47">
         <v>1E-4</v>
       </c>
@@ -4572,7 +4571,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C68" s="11"/>
       <c r="D68" s="44"/>
       <c r="E68" s="11"/>
@@ -4584,7 +4583,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C69" s="11"/>
       <c r="D69" s="44"/>
       <c r="E69" s="11"/>
@@ -4605,7 +4604,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C70" s="11"/>
       <c r="D70" s="44"/>
       <c r="E70" s="11"/>
@@ -4617,7 +4616,7 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C71" s="11"/>
       <c r="D71" s="44"/>
       <c r="E71" s="11"/>
@@ -4629,7 +4628,7 @@
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C72" s="11"/>
       <c r="D72" s="44"/>
       <c r="E72" s="11"/>
@@ -4654,7 +4653,7 @@
         <v>4.7500000000000003E-6</v>
       </c>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C73" s="11"/>
       <c r="D73" s="44"/>
       <c r="E73" s="11"/>
@@ -4670,7 +4669,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C74" s="11"/>
       <c r="D74" s="44"/>
       <c r="E74" s="11"/>
@@ -4682,7 +4681,7 @@
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C75" s="11"/>
       <c r="D75" s="44"/>
       <c r="E75" s="11"/>
@@ -4698,7 +4697,7 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C76" s="11"/>
       <c r="D76" s="44"/>
       <c r="E76" s="11"/>
@@ -4721,7 +4720,7 @@
         <v>9.0249999999999998E-5</v>
       </c>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C77" s="43" t="s">
         <v>46</v>
       </c>
@@ -4743,7 +4742,7 @@
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C78" s="11"/>
       <c r="D78" s="21"/>
       <c r="E78" s="11"/>
@@ -4772,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C79" s="11"/>
       <c r="D79" s="21"/>
       <c r="E79" s="11"/>
@@ -4788,7 +4787,7 @@
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C80" s="11"/>
       <c r="D80" s="21"/>
       <c r="E80" s="11"/>
@@ -4800,7 +4799,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="11"/>
       <c r="D81" s="21"/>
       <c r="E81" s="11"/>
@@ -4812,7 +4811,7 @@
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="11"/>
       <c r="D82" s="21"/>
       <c r="E82" s="11"/>
@@ -4835,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="11"/>
       <c r="D83" s="21"/>
       <c r="E83" s="13" t="s">
@@ -4853,7 +4852,7 @@
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="11"/>
       <c r="D84" s="21"/>
       <c r="E84" s="11"/>
@@ -4865,7 +4864,7 @@
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="11"/>
       <c r="D85" s="21"/>
       <c r="E85" s="11"/>
@@ -4886,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="11"/>
       <c r="D86" s="21"/>
       <c r="E86" s="11"/>
@@ -4906,7 +4905,7 @@
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="11"/>
       <c r="D87" s="21"/>
       <c r="E87" s="11"/>
@@ -4918,7 +4917,7 @@
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="11"/>
       <c r="D88" s="21"/>
       <c r="E88" s="11"/>
@@ -4934,7 +4933,7 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="11"/>
       <c r="D89" s="21"/>
       <c r="E89" s="11"/>
@@ -4957,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="11"/>
       <c r="D90" s="25"/>
       <c r="E90" s="20"/>
@@ -4971,7 +4970,7 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="50"/>
@@ -4996,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="38"/>
@@ -5012,7 +5011,7 @@
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="38"/>
@@ -5024,7 +5023,7 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="38"/>
@@ -5036,7 +5035,7 @@
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="38"/>
@@ -5059,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="38"/>
@@ -5073,7 +5072,7 @@
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="13" t="s">
@@ -5089,7 +5088,7 @@
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="38"/>
@@ -5101,7 +5100,7 @@
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="38"/>
@@ -5122,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="38"/>
@@ -5134,7 +5133,7 @@
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="38"/>
@@ -5146,7 +5145,7 @@
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="38"/>
@@ -5171,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="38"/>
@@ -5187,7 +5186,7 @@
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="38"/>
@@ -5199,7 +5198,7 @@
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="38"/>
@@ -5215,7 +5214,7 @@
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="38"/>
@@ -5238,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
@@ -5256,7 +5255,7 @@
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
     </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -5285,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -5301,7 +5300,7 @@
       <c r="K109" s="11"/>
       <c r="L109" s="11"/>
     </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -5313,7 +5312,7 @@
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
     </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
@@ -5325,7 +5324,7 @@
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
     </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -5348,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -5362,7 +5361,7 @@
       <c r="K113" s="11"/>
       <c r="L113" s="11"/>
     </row>
-    <row r="114" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -5374,7 +5373,7 @@
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
     </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -5395,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -5415,7 +5414,7 @@
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
     </row>
-    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
@@ -5427,7 +5426,7 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
     </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -5443,7 +5442,7 @@
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
     </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
@@ -5466,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -5480,7 +5479,7 @@
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
     </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -5505,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -5521,7 +5520,7 @@
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
     </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -5533,7 +5532,7 @@
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
     </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -5545,7 +5544,7 @@
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
     </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
@@ -5568,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J126" s="51">
         <v>0.95</v>
       </c>
@@ -5585,7 +5584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5593,22 +5592,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
@@ -6189,41 +6188,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31" hidden="1" customWidth="1"/>
-    <col min="15" max="32" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="6" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="15" max="30" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" customWidth="1"/>
     <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="17.88671875" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="39" max="39" width="12.33203125" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="41" width="10.44140625" customWidth="1"/>
-    <col min="42" max="42" width="11.44140625" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" customWidth="1"/>
+    <col min="35" max="35" width="13.28515625" customWidth="1"/>
+    <col min="36" max="38" width="8.85546875" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" customWidth="1"/>
     <col min="43" max="44" width="12" customWidth="1"/>
-    <col min="46" max="46" width="13.6640625" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6318,54 +6318,54 @@
         <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="122" t="s">
-        <v>124</v>
+      <c r="B2" s="118" t="s">
+        <v>123</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>10</v>
@@ -6393,7 +6393,7 @@
         <f>I2</f>
         <v>60</v>
       </c>
-      <c r="K2" s="124">
+      <c r="K2" s="120">
         <v>1200</v>
       </c>
       <c r="L2" s="107" t="str">
@@ -6498,7 +6498,7 @@
         <v>10.368092000000001</v>
       </c>
       <c r="AR2" s="110">
-        <f>AE2*H2</f>
+        <f t="shared" ref="AR2:AR14" si="2">AE2*H2</f>
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="AS2" s="110">
@@ -6506,19 +6506,19 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="AT2" s="110">
-        <f>H2*AQ2</f>
+        <f t="shared" ref="AT2:AT14" si="3">H2*AQ2</f>
         <v>2.5920230000000005E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="123" t="s">
-        <v>124</v>
+      <c r="B3" s="119" t="s">
+        <v>123</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>67</v>
@@ -6533,7 +6533,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H3" s="54">
-        <f t="shared" ref="H3:H7" si="2">E3*F3*G3</f>
+        <f t="shared" ref="H3:H7" si="4">E3*F3*G3</f>
         <v>2.3750000000000001E-6</v>
       </c>
       <c r="I3" s="62">
@@ -6544,16 +6544,16 @@
         <f>0.1*K3</f>
         <v>0.21600000000000003</v>
       </c>
-      <c r="K3" s="124">
+      <c r="K3" s="120">
         <f>POWER(10,-6)*SQRT(100)*50*3600*K2/1000</f>
         <v>2.16</v>
       </c>
       <c r="L3" s="107" t="str">
-        <f t="shared" ref="L3:L8" si="3">A3</f>
+        <f t="shared" ref="L3:L8" si="5">A3</f>
         <v>С2</v>
       </c>
       <c r="M3" s="107" t="str">
-        <f t="shared" ref="M3:M8" si="4">B3</f>
+        <f t="shared" ref="M3:M8" si="6">B3</f>
         <v>Ж/ цистерна (растворитель)</v>
       </c>
       <c r="N3" s="107" t="str">
@@ -6630,15 +6630,15 @@
         <v>3.4399999999999995</v>
       </c>
       <c r="AM3" s="108">
-        <f t="shared" ref="AM3:AM8" si="5">0.1*AL3</f>
+        <f t="shared" ref="AM3:AM8" si="7">0.1*AL3</f>
         <v>0.34399999999999997</v>
       </c>
       <c r="AN3" s="109">
-        <f t="shared" ref="AN3:AN8" si="6">AE3*1.72+115*0.012*AF3</f>
+        <f t="shared" ref="AN3:AN8" si="8">AE3*1.72+115*0.012*AF3</f>
         <v>6.2</v>
       </c>
       <c r="AO3" s="109">
-        <f t="shared" ref="AO3:AO8" si="7">AI3*0.1</f>
+        <f t="shared" ref="AO3:AO8" si="9">AI3*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AP3" s="108">
@@ -6650,27 +6650,27 @@
         <v>11.505747311999999</v>
       </c>
       <c r="AR3" s="110">
-        <f>AE3*H3</f>
+        <f t="shared" si="2"/>
         <v>4.7500000000000003E-6</v>
       </c>
       <c r="AS3" s="110">
-        <f t="shared" ref="AS3:AS19" si="8">AF3*H3</f>
+        <f t="shared" ref="AS3:AS19" si="10">AF3*H3</f>
         <v>4.7500000000000003E-6</v>
       </c>
       <c r="AT3" s="110">
-        <f>H3*AQ3</f>
+        <f t="shared" si="3"/>
         <v>2.7326149865999997E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="123" t="s">
-        <v>124</v>
+      <c r="B4" s="119" t="s">
+        <v>123</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>65</v>
@@ -6685,7 +6685,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H4" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5124999999999999E-5</v>
       </c>
       <c r="I4" s="62">
@@ -6695,16 +6695,16 @@
       <c r="J4" s="82">
         <v>0</v>
       </c>
-      <c r="K4" s="124">
+      <c r="K4" s="120">
         <f>100</f>
         <v>100</v>
       </c>
       <c r="L4" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>С3</v>
       </c>
       <c r="M4" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Ж/ цистерна (растворитель)</v>
       </c>
       <c r="N4" s="107" t="str">
@@ -6781,15 +6781,15 @@
         <v>0.8</v>
       </c>
       <c r="AM4" s="108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="AN4" s="109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO4" s="109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="AP4" s="108">
@@ -6801,30 +6801,30 @@
         <v>2.38287928</v>
       </c>
       <c r="AR4" s="110">
-        <f>AE4*H4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS4" s="110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT4" s="110">
-        <f>H4*AQ4</f>
+        <f t="shared" si="3"/>
         <v>1.0752742751E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="123" t="s">
-        <v>124</v>
+      <c r="B5" s="119" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="54">
         <v>4.9999999999999998E-7</v>
@@ -6836,7 +6836,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2499999999999999E-7</v>
       </c>
       <c r="I5" s="62">
@@ -6847,16 +6847,16 @@
         <f>I5</f>
         <v>6</v>
       </c>
-      <c r="K5" s="124">
+      <c r="K5" s="120">
         <f>ROUNDUP(I5*20,0)</f>
         <v>120</v>
       </c>
       <c r="L5" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>С4</v>
       </c>
       <c r="M5" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Ж/ цистерна (растворитель)</v>
       </c>
       <c r="N5" s="107" t="str">
@@ -6934,15 +6934,15 @@
         <v>0.34400000000000003</v>
       </c>
       <c r="AM5" s="108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4400000000000007E-2</v>
       </c>
       <c r="AN5" s="109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AO5" s="109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="AP5" s="108">
@@ -6954,30 +6954,30 @@
         <v>2.3188092</v>
       </c>
       <c r="AR5" s="110">
-        <f>AE5*H5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS5" s="110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2499999999999999E-7</v>
       </c>
       <c r="AT5" s="110">
-        <f>H5*AQ5</f>
+        <f t="shared" si="3"/>
         <v>2.8985115000000001E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="123" t="s">
-        <v>124</v>
+      <c r="B6" s="119" t="s">
+        <v>123</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="54">
         <v>4.9999999999999998E-7</v>
@@ -6989,7 +6989,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H6" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1874999999999999E-7</v>
       </c>
       <c r="I6" s="62">
@@ -7000,16 +7000,16 @@
         <f>K6</f>
         <v>0.216</v>
       </c>
-      <c r="K6" s="124">
+      <c r="K6" s="120">
         <f>POWER(10,-6)*SQRT(100)*50*3600*K5/1000</f>
         <v>0.216</v>
       </c>
       <c r="L6" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>С5</v>
       </c>
       <c r="M6" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Ж/ цистерна (растворитель)</v>
       </c>
       <c r="N6" s="107" t="str">
@@ -7071,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="107">
-        <f t="shared" ref="AG6:AG7" si="9">0.1*$AG$4</f>
+        <f t="shared" ref="AG6:AG7" si="11">0.1*$AG$4</f>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="AH6" s="107">
@@ -7087,15 +7087,15 @@
         <v>0.34400000000000003</v>
       </c>
       <c r="AM6" s="108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4400000000000007E-2</v>
       </c>
       <c r="AN6" s="109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1</v>
       </c>
       <c r="AO6" s="109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="AP6" s="108">
@@ -7107,27 +7107,27 @@
         <v>4.0001473120000002</v>
       </c>
       <c r="AR6" s="110">
-        <f>AE6*H6</f>
+        <f t="shared" si="2"/>
         <v>1.1874999999999999E-7</v>
       </c>
       <c r="AS6" s="110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1874999999999999E-7</v>
       </c>
       <c r="AT6" s="110">
-        <f>H6*AQ6</f>
+        <f t="shared" si="3"/>
         <v>4.750174933E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="123" t="s">
-        <v>124</v>
+      <c r="B7" s="119" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>66</v>
@@ -7142,7 +7142,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H7" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2562499999999998E-6</v>
       </c>
       <c r="I7" s="62">
@@ -7152,15 +7152,15 @@
       <c r="J7" s="82">
         <v>0</v>
       </c>
-      <c r="K7" s="124">
+      <c r="K7" s="120">
         <v>0</v>
       </c>
       <c r="L7" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>С6</v>
       </c>
       <c r="M7" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Ж/ цистерна (растворитель)</v>
       </c>
       <c r="N7" s="107" t="str">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="AH7" s="107">
@@ -7238,15 +7238,15 @@
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="AM7" s="108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000019E-3</v>
       </c>
       <c r="AN7" s="109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO7" s="109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="AP7" s="108">
@@ -7258,24 +7258,24 @@
         <v>0.58828792799999996</v>
       </c>
       <c r="AR7" s="110">
-        <f>AE7*H7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS7" s="110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT7" s="110">
-        <f>H7*AQ7</f>
+        <f t="shared" si="3"/>
         <v>1.3273246375499998E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="123" t="s">
-        <v>124</v>
+      <c r="B8" s="119" t="s">
+        <v>123</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>68</v>
@@ -7307,11 +7307,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>С7</v>
       </c>
       <c r="M8" s="107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Ж/ цистерна (растворитель)</v>
       </c>
       <c r="N8" s="107" t="str">
@@ -7388,15 +7388,15 @@
         <v>3.4399999999999995</v>
       </c>
       <c r="AM8" s="108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.34399999999999997</v>
       </c>
       <c r="AN8" s="109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="AO8" s="109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="AP8" s="108">
@@ -7408,24 +7408,24 @@
         <v>10.368092000000001</v>
       </c>
       <c r="AR8" s="110">
-        <f>AE8*H8</f>
+        <f t="shared" si="2"/>
         <v>1.25E-4</v>
       </c>
       <c r="AS8" s="110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="AT8" s="110">
-        <f>H8*AQ8</f>
+        <f t="shared" si="3"/>
         <v>1.2960115000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="123" t="s">
-        <v>125</v>
+      <c r="B9" s="119" t="s">
+        <v>124</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>10</v>
@@ -7453,7 +7453,7 @@
         <f>I9</f>
         <v>30</v>
       </c>
-      <c r="K9" s="125">
+      <c r="K9" s="121">
         <f>J9*20</f>
         <v>600</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>Устройство слива (растворитель)</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" ref="N9:N14" si="10">D9</f>
+        <f t="shared" ref="N9:N14" si="12">D9</f>
         <v>Полное-пожар</v>
       </c>
       <c r="O9" s="2">
@@ -7553,31 +7553,31 @@
         <v>0.30204599999999998</v>
       </c>
       <c r="AQ9" s="113">
-        <f t="shared" ref="AQ9:AQ14" si="11">AP9+AO9+AN9+AM9+AL9</f>
+        <f t="shared" ref="AQ9:AQ14" si="13">AP9+AO9+AN9+AM9+AL9</f>
         <v>6.5740460000000001</v>
       </c>
       <c r="AR9" s="114">
-        <f>AE9*H9</f>
+        <f t="shared" si="2"/>
         <v>7.4999999999999993E-9</v>
       </c>
       <c r="AS9" s="114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.4999999999999993E-9</v>
       </c>
       <c r="AT9" s="114">
-        <f>H9*AQ9</f>
+        <f t="shared" si="3"/>
         <v>4.9305344999999998E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>125</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>126</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>67</v>
@@ -7592,7 +7592,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H10" s="61">
-        <f t="shared" ref="H10:H14" si="12">E10*F10*G10</f>
+        <f t="shared" ref="H10:H14" si="14">E10*F10*G10</f>
         <v>7.1250000000000001E-9</v>
       </c>
       <c r="I10" s="58">
@@ -7603,20 +7603,20 @@
         <f>0.1*K10</f>
         <v>0.10800000000000001</v>
       </c>
-      <c r="K10" s="125">
+      <c r="K10" s="121">
         <f>POWER(10,-6)*SQRT(100)*50*3600*K9/1000</f>
         <v>1.08</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" ref="L10:L14" si="13">A10</f>
+        <f t="shared" ref="L10:L14" si="15">A10</f>
         <v>С9</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" ref="M10:M14" si="14">B10</f>
+        <f t="shared" ref="M10:M14" si="16">B10</f>
         <v>Устройство слива (растворитель)</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -7687,15 +7687,15 @@
         <v>1.5199999999999998</v>
       </c>
       <c r="AM10" s="112">
-        <f t="shared" ref="AM10:AM14" si="15">0.1*AL10</f>
+        <f t="shared" ref="AM10:AM14" si="17">0.1*AL10</f>
         <v>0.152</v>
       </c>
       <c r="AN10" s="113">
-        <f t="shared" ref="AN10:AN14" si="16">AE10*1.72+115*0.012*AF10</f>
+        <f t="shared" ref="AN10:AN14" si="18">AE10*1.72+115*0.012*AF10</f>
         <v>3.1</v>
       </c>
       <c r="AO10" s="113">
-        <f t="shared" ref="AO10:AO14" si="17">AI10*0.1</f>
+        <f t="shared" ref="AO10:AO14" si="19">AI10*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AP10" s="112">
@@ -7703,31 +7703,31 @@
         <v>1.0873656000000002E-2</v>
       </c>
       <c r="AQ10" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.2828736559999996</v>
       </c>
       <c r="AR10" s="114">
-        <f>AE10*H10</f>
+        <f t="shared" si="2"/>
         <v>7.1250000000000001E-9</v>
       </c>
       <c r="AS10" s="114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.1250000000000001E-9</v>
       </c>
       <c r="AT10" s="114">
-        <f>H10*AQ10</f>
+        <f t="shared" si="3"/>
         <v>4.4765474798999995E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="123" t="s">
-        <v>125</v>
+      <c r="B11" s="119" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>65</v>
@@ -7742,7 +7742,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H11" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3537499999999998E-7</v>
       </c>
       <c r="I11" s="58">
@@ -7752,20 +7752,20 @@
       <c r="J11" s="81">
         <v>0</v>
       </c>
-      <c r="K11" s="125">
+      <c r="K11" s="121">
         <f>100</f>
         <v>100</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>С10</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Устройство слива (растворитель)</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -7836,15 +7836,15 @@
         <v>0.2</v>
       </c>
       <c r="AM11" s="112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="AN11" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO11" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5</v>
       </c>
       <c r="AP11" s="112">
@@ -7852,34 +7852,34 @@
         <v>1.4396400000000001E-3</v>
       </c>
       <c r="AQ11" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.72143964</v>
       </c>
       <c r="AR11" s="114">
-        <f>AE11*H11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS11" s="114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT11" s="114">
-        <f>H11*AQ11</f>
+        <f t="shared" si="3"/>
         <v>2.3303989126499998E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="123" t="s">
-        <v>125</v>
+      <c r="B12" s="119" t="s">
+        <v>124</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="61">
         <v>2.9999999999999999E-7</v>
@@ -7891,7 +7891,7 @@
         <v>0.05</v>
       </c>
       <c r="H12" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.500000000000001E-8</v>
       </c>
       <c r="I12" s="58">
@@ -7902,20 +7902,20 @@
         <f>I12</f>
         <v>3</v>
       </c>
-      <c r="K12" s="125">
+      <c r="K12" s="121">
         <f>ROUNDUP(I12*20,0)</f>
         <v>60</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>С11</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Устройство слива (растворитель)</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Частичное-пролив</v>
       </c>
       <c r="O12" s="2">
@@ -7986,15 +7986,15 @@
         <v>0.152</v>
       </c>
       <c r="AM12" s="112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.52E-2</v>
       </c>
       <c r="AN12" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AO12" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="AP12" s="112">
@@ -8002,34 +8002,34 @@
         <v>3.0204600000000002E-2</v>
       </c>
       <c r="AQ12" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0774046000000004</v>
       </c>
       <c r="AR12" s="114">
-        <f>AE12*H12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS12" s="114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.500000000000001E-8</v>
       </c>
       <c r="AT12" s="114">
-        <f>H12*AQ12</f>
+        <f t="shared" si="3"/>
         <v>1.5580534500000004E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="123" t="s">
-        <v>125</v>
+      <c r="B13" s="119" t="s">
+        <v>124</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="61">
         <v>2.9999999999999999E-7</v>
@@ -8041,7 +8041,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H13" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.1250000000000006E-8</v>
       </c>
       <c r="I13" s="58">
@@ -8052,20 +8052,20 @@
         <f>K13</f>
         <v>0.108</v>
       </c>
-      <c r="K13" s="125">
+      <c r="K13" s="121">
         <f>POWER(10,-6)*SQRT(100)*50*3600*K12/1000</f>
         <v>0.108</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>С12</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Устройство слива (растворитель)</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Частичное Вспышка</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -8136,15 +8136,15 @@
         <v>0.152</v>
       </c>
       <c r="AM13" s="112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.52E-2</v>
       </c>
       <c r="AN13" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AO13" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="AP13" s="112">
@@ -8152,31 +8152,31 @@
         <v>1.0873656000000001E-2</v>
       </c>
       <c r="AQ13" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0580736560000004</v>
       </c>
       <c r="AR13" s="114">
-        <f>AE13*H13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS13" s="114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.1250000000000006E-8</v>
       </c>
       <c r="AT13" s="114">
-        <f>H13*AQ13</f>
+        <f t="shared" si="3"/>
         <v>1.4663774799000004E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="123" t="s">
-        <v>125</v>
+      <c r="B14" s="119" t="s">
+        <v>124</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>66</v>
@@ -8191,7 +8191,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H14" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.35375E-6</v>
       </c>
       <c r="I14" s="58">
@@ -8201,19 +8201,19 @@
       <c r="J14" s="81">
         <v>0</v>
       </c>
-      <c r="K14" s="125">
+      <c r="K14" s="121">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>С13</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Устройство слива (растворитель)</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Частичное-ликвидация</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -8284,15 +8284,15 @@
         <v>0.02</v>
       </c>
       <c r="AM14" s="112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2E-3</v>
       </c>
       <c r="AN14" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AO14" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="AP14" s="112">
@@ -8300,44 +8300,44 @@
         <v>1.4396399999999998E-4</v>
       </c>
       <c r="AQ14" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52214396400000007</v>
       </c>
       <c r="AR14" s="114">
-        <f>AE14*H14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS14" s="114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT14" s="114">
-        <f>H14*AQ14</f>
+        <f t="shared" si="3"/>
         <v>7.0685239126500003E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="123" t="s">
-        <v>140</v>
+      <c r="B15" s="119" t="s">
+        <v>139</v>
       </c>
       <c r="AR15" s="110"/>
       <c r="AS15" s="110"/>
     </row>
-    <row r="16" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="123" t="s">
-        <v>140</v>
+      <c r="B16" s="119" t="s">
+        <v>139</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="54">
         <v>1.0000000000000001E-5</v>
@@ -8346,11 +8346,11 @@
         <v>5</v>
       </c>
       <c r="G16" s="52">
-        <v>0.90249999999999997</v>
+        <v>1</v>
       </c>
       <c r="H16" s="54">
-        <f t="shared" ref="H16:H19" si="18">E16*F16*G16</f>
-        <v>4.5124999999999999E-5</v>
+        <f t="shared" ref="H16:H19" si="20">E16*F16*G16</f>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I16" s="62">
         <v>60</v>
@@ -8359,20 +8359,20 @@
         <f>K16</f>
         <v>0.20736000000000002</v>
       </c>
-      <c r="K16" s="124">
+      <c r="K16" s="120">
         <f>POWER(10,-6)*SQRT(36)*8*3600*K2/1000</f>
         <v>0.20736000000000002</v>
       </c>
       <c r="L16" s="107" t="str">
-        <f t="shared" ref="L16:L19" si="19">A16</f>
+        <f t="shared" ref="L16:L19" si="21">A16</f>
         <v>С15</v>
       </c>
       <c r="M16" s="107" t="str">
-        <f t="shared" ref="M16:M19" si="20">B16</f>
+        <f t="shared" ref="M16:M19" si="22">B16</f>
         <v>Ж/ цистерна (соляная кислота)</v>
       </c>
       <c r="N16" s="107" t="str">
-        <f t="shared" ref="N16:N19" si="21">D16</f>
+        <f t="shared" ref="N16:N19" si="23">D16</f>
         <v>Полное-токси</v>
       </c>
       <c r="O16" s="107" t="s">
@@ -8445,15 +8445,15 @@
         <v>0.80269568000000002</v>
       </c>
       <c r="AM16" s="108">
-        <f t="shared" ref="AM16:AM19" si="22">0.1*AL16</f>
+        <f t="shared" ref="AM16:AM19" si="24">0.1*AL16</f>
         <v>8.0269568000000013E-2</v>
       </c>
       <c r="AN16" s="109">
-        <f t="shared" ref="AN16:AN19" si="23">AE16*1.72+115*0.012*AF16</f>
+        <f t="shared" ref="AN16:AN19" si="25">AE16*1.72+115*0.012*AF16</f>
         <v>8.9600000000000009</v>
       </c>
       <c r="AO16" s="109">
-        <f t="shared" ref="AO16:AO19" si="24">AI16*0.1</f>
+        <f t="shared" ref="AO16:AO19" si="26">AI16*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AP16" s="108">
@@ -8461,34 +8461,34 @@
         <v>1.0368E-2</v>
       </c>
       <c r="AQ16" s="109">
-        <f t="shared" ref="AQ16:AQ19" si="25">AP16+AO16+AN16+AM16+AL16</f>
+        <f t="shared" ref="AQ16:AQ19" si="27">AP16+AO16+AN16+AM16+AL16</f>
         <v>11.353333248</v>
       </c>
       <c r="AR16" s="110">
         <f>AE16*H16</f>
-        <v>9.0249999999999998E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="AS16" s="110">
-        <f t="shared" si="8"/>
-        <v>1.805E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AT16" s="110">
         <f>H16*AQ16</f>
-        <v>5.1231916281599995E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.6766666240000007E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="123" t="s">
-        <v>140</v>
+      <c r="B17" s="119" t="s">
+        <v>139</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="54">
         <v>4.9999999999999998E-7</v>
@@ -8497,11 +8497,11 @@
         <v>5</v>
       </c>
       <c r="G17" s="52">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H17" s="54">
-        <f t="shared" si="18"/>
-        <v>1.2499999999999999E-7</v>
+        <f t="shared" si="20"/>
+        <v>2.4999999999999998E-6</v>
       </c>
       <c r="I17" s="62">
         <v>6</v>
@@ -8510,20 +8510,20 @@
         <f>K17</f>
         <v>2.0736000000000001E-2</v>
       </c>
-      <c r="K17" s="124">
+      <c r="K17" s="120">
         <f>POWER(10,-6)*SQRT(36)*8*3600*K5/1000</f>
         <v>2.0736000000000001E-2</v>
       </c>
       <c r="L17" s="107" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>С16</v>
       </c>
       <c r="M17" s="107" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Ж/ цистерна (соляная кислота)</v>
       </c>
       <c r="N17" s="107" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Частичное-токси</v>
       </c>
       <c r="O17" s="107" t="s">
@@ -8596,50 +8596,50 @@
         <v>8.0269567999999999E-2</v>
       </c>
       <c r="AM17" s="108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.0269568000000003E-3</v>
       </c>
       <c r="AN17" s="109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="AO17" s="109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="AP17" s="108">
-        <f t="shared" ref="AP17:AP19" si="26">50000*POWER(10,-6)*J17</f>
+        <f t="shared" ref="AP17:AP19" si="28">50000*POWER(10,-6)*J17</f>
         <v>1.0368E-3</v>
       </c>
       <c r="AQ17" s="109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0693333248000005</v>
       </c>
       <c r="AR17" s="110">
         <f>AE17*H17</f>
-        <v>1.2499999999999999E-7</v>
+        <v>2.4999999999999998E-6</v>
       </c>
       <c r="AS17" s="110">
-        <f t="shared" si="8"/>
-        <v>2.4999999999999999E-7</v>
+        <f t="shared" si="10"/>
+        <v>4.9999999999999996E-6</v>
       </c>
       <c r="AT17" s="110">
         <f>H17*AQ17</f>
-        <v>6.3366666560000008E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.2673333312E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="123" t="s">
-        <v>140</v>
+      <c r="B18" s="119" t="s">
+        <v>139</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="61">
         <v>2.9999999999999997E-8</v>
@@ -8648,11 +8648,11 @@
         <v>5</v>
       </c>
       <c r="G18" s="58">
-        <v>0.90249999999999997</v>
+        <v>1</v>
       </c>
       <c r="H18" s="61">
-        <f t="shared" si="18"/>
-        <v>1.3537499999999998E-7</v>
+        <f t="shared" si="20"/>
+        <v>1.4999999999999999E-7</v>
       </c>
       <c r="I18" s="58">
         <v>30</v>
@@ -8661,20 +8661,20 @@
         <f>K18</f>
         <v>0.10368000000000001</v>
       </c>
-      <c r="K18" s="125">
+      <c r="K18" s="121">
         <f>POWER(10,-6)*SQRT(36)*8*3600*K9/1000</f>
         <v>0.10368000000000001</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>С17</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Ж/ цистерна (соляная кислота)</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Полное-токси</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -8745,50 +8745,50 @@
         <v>0.80134784000000003</v>
       </c>
       <c r="AM18" s="112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.0134784000000014E-2</v>
       </c>
       <c r="AN18" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.2</v>
       </c>
       <c r="AO18" s="113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
       <c r="AP18" s="112">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.1840000000000002E-3</v>
       </c>
       <c r="AQ18" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.5866666239999994</v>
       </c>
       <c r="AR18" s="114">
         <f>AE18*H18</f>
-        <v>2.7074999999999996E-7</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="AS18" s="114">
-        <f t="shared" si="8"/>
-        <v>2.7074999999999996E-7</v>
+        <f t="shared" si="10"/>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="AT18" s="114">
         <f>H18*AQ18</f>
-        <v>1.1624199942239997E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.2879999935999999E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="123" t="s">
-        <v>140</v>
+      <c r="B19" s="119" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="61">
         <v>2.9999999999999999E-7</v>
@@ -8797,11 +8797,11 @@
         <v>5</v>
       </c>
       <c r="G19" s="58">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H19" s="61">
-        <f t="shared" si="18"/>
-        <v>7.500000000000001E-8</v>
+        <f t="shared" si="20"/>
+        <v>1.5E-6</v>
       </c>
       <c r="I19" s="58">
         <v>3</v>
@@ -8810,20 +8810,20 @@
         <f>K19</f>
         <v>1.0368E-2</v>
       </c>
-      <c r="K19" s="125">
+      <c r="K19" s="121">
         <f>POWER(10,-6)*SQRT(36)*8*3600*K12/1000</f>
         <v>1.0368E-2</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>С18</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Ж/ цистерна (соляная кислота)</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Частичное-токси</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -8894,53 +8894,53 @@
         <v>8.0134784000000001E-2</v>
       </c>
       <c r="AM19" s="112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.0134784000000011E-3</v>
       </c>
       <c r="AN19" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="AO19" s="113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="AP19" s="112">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.1840000000000002E-4</v>
       </c>
       <c r="AQ19" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0686666624000001</v>
       </c>
       <c r="AR19" s="114">
         <f>AE19*H19</f>
-        <v>7.500000000000001E-8</v>
+        <v>1.5E-6</v>
       </c>
       <c r="AS19" s="114">
-        <f t="shared" si="8"/>
-        <v>1.5000000000000002E-7</v>
+        <f t="shared" si="10"/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AT19" s="114">
         <f>H19*AQ19</f>
-        <v>3.8014999968000003E-7</v>
+        <v>7.6029999936000002E-6</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="AQ21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR21" s="126">
+        <v>138</v>
+      </c>
+      <c r="AR21" s="122">
         <f>SUM(AR2:AR19)</f>
-        <v>2.23104125E-4</v>
-      </c>
-      <c r="AS21" s="126">
+        <v>2.3668337500000006E-4</v>
+      </c>
+      <c r="AS21" s="122">
         <f>SUM(AS2:AS19)</f>
-        <v>4.4132537499999997E-4</v>
-      </c>
-      <c r="AT21" s="126">
+        <v>4.6845462500000009E-4</v>
+      </c>
+      <c r="AT21" s="122">
         <f>SUM(AT2:AT19)</f>
-        <v>1.9747093063276736E-3</v>
+        <v>2.0494449025513692E-3</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.3">
@@ -8948,15 +8948,15 @@
         <v>5.5454999999999997</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR22" s="126">
+        <v>137</v>
+      </c>
+      <c r="AR22" s="122">
         <f>AR21/16</f>
-        <v>1.39440078125E-5</v>
-      </c>
-      <c r="AS22" s="126">
+        <v>1.4792710937500004E-5</v>
+      </c>
+      <c r="AS22" s="122">
         <f>AS21/16</f>
-        <v>2.7582835937499998E-5</v>
+        <v>2.9278414062500006E-5</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.3">
@@ -9008,58 +9008,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4C7BA6-A96D-4F17-AA58-39EB24C961AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O20" sqref="O20:O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="79.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="79.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="G1" s="95"/>
-    </row>
-    <row r="2" spans="1:15" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+      <c r="B2" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="C2" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="98" t="s">
+      <c r="G2" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="99">
         <v>1</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="101">
         <v>5000</v>
@@ -9078,12 +9078,12 @@
         <v>432.72986400000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="99">
         <v>2</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="101">
         <v>64289</v>
@@ -9102,12 +9102,12 @@
         <v>460.17665036640005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="99">
         <v>3</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="101">
         <v>10723</v>
@@ -9126,12 +9126,12 @@
         <v>302.36646772799998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="99">
         <v>4</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="101">
         <v>50000</v>
@@ -9150,12 +9150,12 @@
         <v>5.4226800000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="99">
         <v>5</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="101">
         <v>50000</v>
@@ -9174,12 +9174,12 @@
         <v>8757.628200000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="99">
         <v>6</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="101">
         <v>50000</v>
@@ -9198,12 +9198,12 @@
         <v>54.226800000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="99">
         <v>8</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="101">
         <v>50000</v>
@@ -9222,12 +9222,12 @@
         <v>54.226800000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99">
         <v>9</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="101">
         <v>93.5</v>
@@ -9246,53 +9246,53 @@
         <v>1.4196576240000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="103"/>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
       <c r="D11" s="104"/>
-      <c r="E11" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="121"/>
+      <c r="E11" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="126"/>
       <c r="G11" s="105">
         <f>SUM(G3:G10)</f>
         <v>10068.197119718401</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:15" ht="113.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="C14" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="98" t="s">
+      <c r="G14" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="98" t="s">
-        <v>109</v>
-      </c>
       <c r="O14" s="106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="99">
         <v>1</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="101">
         <v>12292</v>
@@ -9311,8 +9311,8 @@
         <v>1333.1116512000001</v>
       </c>
     </row>
-    <row r="19" spans="14:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="14:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="14:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N20" s="116">
         <v>1.2300000000000001E-4</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>1.28125E-6</v>
       </c>
     </row>
-    <row r="21" spans="14:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N21" s="117">
         <v>4.4799999999999999E-4</v>
       </c>
